--- a/env_automacao/diario.xlsx
+++ b/env_automacao/diario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Preencher" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="86">
   <si>
     <t xml:space="preserve">Turma</t>
   </si>
@@ -184,6 +184,9 @@
     <t xml:space="preserve">terça-feira</t>
   </si>
   <si>
+    <t xml:space="preserve">RECESSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">2º BIMESTRE</t>
   </si>
   <si>
@@ -196,18 +199,60 @@
     <t xml:space="preserve">1° 1</t>
   </si>
   <si>
-    <t xml:space="preserve">tema</t>
+    <t xml:space="preserve">TEMA</t>
   </si>
   <si>
     <t xml:space="preserve">2º 1</t>
   </si>
   <si>
+    <t xml:space="preserve">3° 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introdução e apresentação do curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisão de frações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avaliação diagnostica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisão de potenciação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notação científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correção de exercícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisão para prova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperação</t>
+  </si>
+  <si>
     <t xml:space="preserve">1º 2</t>
   </si>
   <si>
     <t xml:space="preserve">2º 2</t>
   </si>
   <si>
+    <t xml:space="preserve">revisão para recuáração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisão para recuperação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3° 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1º 3</t>
   </si>
   <si>
@@ -217,10 +262,28 @@
     <t xml:space="preserve">1º 4</t>
   </si>
   <si>
+    <t xml:space="preserve">2° 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3° 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1º 5</t>
   </si>
   <si>
+    <t xml:space="preserve">2° 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">1º 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2° 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3° 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3° 5</t>
   </si>
 </sst>
 </file>
@@ -602,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:G60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,8 +2096,8 @@
   </sheetPr>
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T32" activeCellId="1" sqref="F2:G60 T32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2132,7 +2195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>44964</v>
       </c>
@@ -2155,7 +2218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>44965</v>
       </c>
@@ -2311,7 +2374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>44971</v>
       </c>
@@ -2334,7 +2397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>44972</v>
       </c>
@@ -2471,7 +2534,7 @@
         <v>44977</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>41</v>
@@ -2490,12 +2553,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>44978</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>41</v>
@@ -2518,7 +2581,7 @@
         <v>44979</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>41</v>
@@ -2669,7 +2732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>44985</v>
       </c>
@@ -2692,7 +2755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>44986</v>
       </c>
@@ -2848,7 +2911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>44992</v>
       </c>
@@ -2871,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>44993</v>
       </c>
@@ -3027,7 +3090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>44999</v>
       </c>
@@ -3050,7 +3113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>45000</v>
       </c>
@@ -3206,7 +3269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>45006</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>45007</v>
       </c>
@@ -3385,7 +3448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>45013</v>
       </c>
@@ -3408,7 +3471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>45014</v>
       </c>
@@ -3564,7 +3627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>45020</v>
       </c>
@@ -3587,7 +3650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>45021</v>
       </c>
@@ -3743,7 +3806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>45027</v>
       </c>
@@ -3766,7 +3829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>45028</v>
       </c>
@@ -3922,7 +3985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>45034</v>
       </c>
@@ -3945,7 +4008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>45035</v>
       </c>
@@ -4109,7 +4172,7 @@
         <v>51</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N80" s="13" t="s">
         <v>42</v>
@@ -4132,7 +4195,7 @@
         <v>44</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>42</v>
@@ -4167,7 +4230,7 @@
         <v>46</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>42</v>
@@ -4193,7 +4256,7 @@
         <v>47</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,7 +4267,7 @@
         <v>48</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4278,7 @@
         <v>49</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4289,7 @@
         <v>50</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +4300,7 @@
         <v>51</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4311,7 @@
         <v>44</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,7 +4322,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,7 +4333,7 @@
         <v>47</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,7 +4344,7 @@
         <v>48</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,7 +4355,7 @@
         <v>49</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,7 +4366,7 @@
         <v>50</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4377,7 @@
         <v>51</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +4388,7 @@
         <v>44</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +4399,7 @@
         <v>46</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +4410,7 @@
         <v>47</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +4421,7 @@
         <v>48</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +4432,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,7 +4443,7 @@
         <v>50</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4454,7 @@
         <v>51</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4465,7 @@
         <v>44</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,7 +4476,7 @@
         <v>46</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4487,7 @@
         <v>47</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,7 +4498,7 @@
         <v>48</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4509,7 @@
         <v>49</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +4531,7 @@
         <v>51</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4542,7 @@
         <v>44</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +4553,7 @@
         <v>46</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4501,7 +4564,7 @@
         <v>47</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,7 +4575,7 @@
         <v>48</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,7 +4586,7 @@
         <v>49</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,7 +4608,7 @@
         <v>51</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +4619,7 @@
         <v>44</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,7 +4630,7 @@
         <v>46</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,7 +4641,7 @@
         <v>47</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,7 +4652,7 @@
         <v>48</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4663,7 @@
         <v>49</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4674,7 @@
         <v>50</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4685,7 @@
         <v>51</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,7 +4718,7 @@
         <v>47</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,7 +4729,7 @@
         <v>48</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,7 +4740,7 @@
         <v>49</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4751,7 @@
         <v>50</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,7 +4762,7 @@
         <v>51</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4773,7 @@
         <v>44</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4784,7 @@
         <v>46</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,7 +4795,7 @@
         <v>47</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,7 +4806,7 @@
         <v>48</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,7 +4817,7 @@
         <v>49</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4828,7 @@
         <v>50</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4839,7 @@
         <v>51</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4861,7 @@
         <v>46</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,7 +4872,7 @@
         <v>47</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4883,7 @@
         <v>48</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,7 +4894,7 @@
         <v>49</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4905,7 @@
         <v>50</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4916,7 @@
         <v>51</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4927,7 @@
         <v>44</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4938,7 @@
         <v>46</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,7 +4949,7 @@
         <v>47</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +4960,7 @@
         <v>48</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4982,7 @@
         <v>50</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,7 +4993,7 @@
         <v>51</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +5004,7 @@
         <v>44</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +5015,7 @@
         <v>46</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +5026,7 @@
         <v>47</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,7 +5571,7 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="terça-feira"/>
+        <filter val="quarta-feira"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5539,7 +5602,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:G60 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5559,10 +5622,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="F2:G60 E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5571,16 +5634,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5588,488 +5662,1387 @@
       <c r="A2" s="6" t="n">
         <v>44965</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E2" s="6" t="n">
         <v>44966</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>44963</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>44972</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" s="6" t="n">
         <v>44973</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>44964</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
-        <v>44979</v>
+        <v>44986</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>44980</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>44970</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
-        <v>44986</v>
+        <v>44993</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>44987</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>44971</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>44994</v>
       </c>
+      <c r="I6" s="6" t="n">
+        <v>44984</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>45001</v>
       </c>
+      <c r="I7" s="6" t="n">
+        <v>44985</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>45008</v>
       </c>
+      <c r="I8" s="6" t="n">
+        <v>44991</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
-        <v>45014</v>
+        <v>45021</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>45015</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>44992</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
-        <v>45021</v>
+        <v>45028</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>45022</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>44998</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
-        <v>45028</v>
+        <v>45035</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>45029</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>44999</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>45035</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="E12" s="6" t="n">
         <v>45036</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="6" t="n">
+        <v>45006</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>45012</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>44965</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="6" t="n">
         <v>44963</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>45013</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>44972</v>
       </c>
+      <c r="B16" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="6" t="n">
         <v>44970</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>45019</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>44979</v>
+        <v>44986</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>44977</v>
+        <v>44984</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>45020</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>44986</v>
+        <v>44993</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44984</v>
+        <v>44991</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>45026</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44991</v>
+        <v>44998</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>45027</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>44998</v>
+        <v>45005</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>45033</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>45005</v>
+        <v>45012</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>45034</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>45014</v>
+        <v>45021</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45012</v>
+        <v>45019</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>45040</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>45021</v>
+        <v>45028</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45019</v>
+        <v>45026</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>45028</v>
+        <v>45035</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>45026</v>
+        <v>45033</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>45035</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="E25" s="6" t="n">
-        <v>45033</v>
+        <v>45040</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>44963</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="6" t="n">
-        <v>45040</v>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6" t="n">
+        <v>44965</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>44970</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>44965</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>44972</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>44972</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>44984</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>44979</v>
+        <v>44986</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>44973</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>44986</v>
+        <v>44993</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>44980</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>44991</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="6" t="n">
         <v>44993</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>45000</v>
+        <v>45007</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>44994</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>44998</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>45007</v>
+        <v>45014</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>45001</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>45000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>45014</v>
+        <v>45021</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>45008</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>45005</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>45021</v>
+        <v>45028</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>45015</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>45007</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
-        <v>45028</v>
+        <v>45035</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>45022</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>45012</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
-        <v>45035</v>
+      <c r="A38" s="6"/>
+      <c r="E38" s="6" t="n">
+        <v>45029</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>45014</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
+      <c r="E39" s="6" t="n">
+        <v>45036</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>45019</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>45021</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>44966</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>45026</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>44973</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>45028</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>44980</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>45033</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>44987</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>44994</v>
       </c>
       <c r="B45" s="7"/>
+      <c r="E45" s="6" t="n">
+        <v>44991</v>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>45040</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>45001</v>
       </c>
       <c r="B46" s="7"/>
+      <c r="E46" s="6" t="n">
+        <v>44998</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>45008</v>
       </c>
       <c r="B47" s="7"/>
+      <c r="E47" s="6" t="n">
+        <v>45005</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>45015</v>
       </c>
       <c r="B48" s="7"/>
+      <c r="E48" s="6" t="n">
+        <v>45012</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>44964</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>45022</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>45019</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>44965</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>45026</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>44971</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45036</v>
       </c>
+      <c r="B51" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>45033</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="6" t="n">
+        <v>44972</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
+      <c r="E52" s="6" t="n">
+        <v>45040</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>44985</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="I53" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>44966</v>
       </c>
+      <c r="B54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>44992</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>44973</v>
       </c>
+      <c r="B55" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="6" t="n">
+        <v>44993</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>44980</v>
       </c>
+      <c r="B56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="6" t="n">
+        <v>44999</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>44987</v>
       </c>
+      <c r="B57" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="6" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>44994</v>
       </c>
+      <c r="E58" s="6" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="6" t="n">
+        <v>45006</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>45001</v>
       </c>
+      <c r="E59" s="6" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="6" t="n">
+        <v>45007</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>45008</v>
       </c>
+      <c r="E60" s="6" t="n">
+        <v>44999</v>
+      </c>
+      <c r="I60" s="6" t="n">
+        <v>45013</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>45015</v>
       </c>
+      <c r="E61" s="6" t="n">
+        <v>45006</v>
+      </c>
+      <c r="I61" s="6" t="n">
+        <v>45014</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45022</v>
       </c>
+      <c r="B62" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>45013</v>
+      </c>
+      <c r="I62" s="6" t="n">
+        <v>45020</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>45020</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="6" t="n">
+        <v>45021</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>45036</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>45027</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="6" t="n">
+        <v>45027</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
+      <c r="E65" s="6" t="n">
+        <v>45034</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="6" t="n">
+        <v>45028</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="I66" s="6" t="n">
+        <v>45034</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>44965</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>44972</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="B69" s="7"/>
+        <v>44986</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>44965</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B70" s="7"/>
+        <v>44993</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>44972</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="6" t="n">
+        <v>44964</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="B71" s="7"/>
+      <c r="E71" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="6" t="n">
+        <v>44966</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
-        <v>45000</v>
+        <v>45007</v>
       </c>
       <c r="B72" s="7"/>
+      <c r="E72" s="6" t="n">
+        <v>44993</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I72" s="6" t="n">
+        <v>44971</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
-        <v>45007</v>
+        <v>45014</v>
       </c>
       <c r="B73" s="7"/>
+      <c r="E73" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="I73" s="6" t="n">
+        <v>44973</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
-        <v>45014</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>45021</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>45007</v>
+      </c>
+      <c r="I74" s="6" t="n">
+        <v>44980</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="B75" s="7"/>
+        <v>45028</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>45014</v>
+      </c>
+      <c r="I75" s="6" t="n">
+        <v>44985</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>45021</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="E77" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
-        <v>45035</v>
-      </c>
-      <c r="B77" s="7"/>
+      <c r="F77" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" s="6" t="n">
+        <v>44992</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
+      <c r="E78" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="6" t="n">
+        <v>44994</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="I79" s="6" t="n">
+        <v>44999</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
+      <c r="I80" s="6" t="n">
+        <v>45001</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
+      <c r="I81" s="6" t="n">
+        <v>45006</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
+      <c r="I82" s="6" t="n">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="6" t="n">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="6" t="n">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="6" t="n">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="6" t="n">
+        <v>45022</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="6" t="n">
+        <v>45027</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="6" t="n">
+        <v>45029</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="6" t="n">
+        <v>45034</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="6" t="n">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="6" t="n">
+        <v>44965</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="6" t="n">
+        <v>44965</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="6" t="n">
+        <v>44972</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="6" t="n">
+        <v>44972</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="6" t="n">
+        <v>44993</v>
+      </c>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="6" t="n">
+        <v>44993</v>
+      </c>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="6" t="n">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="6" t="n">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="6" t="n">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="6" t="n">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="6" t="n">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="6" t="n">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="6" t="n">
+        <v>45028</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="6" t="n">
+        <v>45028</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="6" t="n">
+        <v>45035</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
